--- a/doc/example.xlsx
+++ b/doc/example.xlsx
@@ -20,15 +20,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>nama</t>
-  </si>
-  <si>
-    <t>jenis kelamin</t>
-  </si>
-  <si>
-    <t>alamat</t>
-  </si>
-  <si>
     <t>abc</t>
   </si>
   <si>
@@ -96,6 +87,15 @@
   </si>
   <si>
     <t>indonesia</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>country</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,13 +467,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -481,13 +481,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -495,13 +495,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -509,13 +509,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -523,13 +523,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -537,13 +537,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -551,13 +551,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -565,13 +565,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -579,13 +579,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -593,13 +593,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -607,13 +607,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -621,13 +621,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -635,13 +635,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -649,13 +649,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -663,13 +663,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -677,13 +677,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -691,13 +691,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -705,13 +705,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -719,13 +719,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -733,13 +733,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -747,13 +747,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
